--- a/data/Triglycerides.xlsx
+++ b/data/Triglycerides.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D208823-6560-434C-AAE7-2A83FA56D5E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F835C25D-E771-43F9-A5BD-05C7DE8DC177}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1267,9 +1267,9 @@
   <dimension ref="A1:AV34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="AD34" sqref="AD34"/>
+      <selection pane="bottomLeft" activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,6 +1433,10 @@
       <c r="R2" s="2">
         <v>1.1000000000000001</v>
       </c>
+      <c r="S2" s="2">
+        <f>T2*SQRT(V2)</f>
+        <v>0.52915026221291817</v>
+      </c>
       <c r="T2" s="2">
         <v>0.2</v>
       </c>
@@ -1444,6 +1448,10 @@
       </c>
       <c r="X2" s="2">
         <v>2.2999999999999998</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>Z2*SQRT(AB2)</f>
+        <v>0.79372539331937719</v>
       </c>
       <c r="Z2" s="2">
         <v>0.3</v>
@@ -1511,6 +1519,10 @@
       <c r="R3" s="2">
         <v>1.6</v>
       </c>
+      <c r="S3" s="2">
+        <f t="shared" ref="S3:S19" si="0">T3*SQRT(V3)</f>
+        <v>0.84852813742385702</v>
+      </c>
       <c r="T3" s="2">
         <v>0.2</v>
       </c>
@@ -1522,6 +1534,10 @@
       </c>
       <c r="X3" s="2">
         <v>2.4</v>
+      </c>
+      <c r="Y3" s="2">
+        <f t="shared" ref="Y3:Y19" si="1">Z3*SQRT(AB3)</f>
+        <v>0.84852813742385702</v>
       </c>
       <c r="Z3" s="2">
         <v>0.2</v>
@@ -1587,6 +1603,10 @@
       <c r="R4" s="2">
         <v>1.1000000000000001</v>
       </c>
+      <c r="S4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.52915026221291817</v>
+      </c>
       <c r="T4" s="2">
         <v>0.2</v>
       </c>
@@ -1598,6 +1618,10 @@
       </c>
       <c r="X4" s="2">
         <v>0.5</v>
+      </c>
+      <c r="Y4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.26457513110645908</v>
       </c>
       <c r="Z4" s="2">
         <v>0.1</v>
@@ -1666,6 +1690,10 @@
       <c r="R5" s="2">
         <v>1.6</v>
       </c>
+      <c r="S5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84852813742385702</v>
+      </c>
       <c r="T5" s="2">
         <v>0.2</v>
       </c>
@@ -1677,6 +1705,10 @@
       </c>
       <c r="X5" s="2">
         <v>1.8</v>
+      </c>
+      <c r="Y5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.84852813742385702</v>
       </c>
       <c r="Z5" s="2">
         <v>0.2</v>
@@ -1746,6 +1778,10 @@
       <c r="R6" s="14">
         <v>0.54</v>
       </c>
+      <c r="S6" s="2">
+        <f t="shared" si="0"/>
+        <v>5.656854249492381E-2</v>
+      </c>
       <c r="T6" s="11">
         <v>0.02</v>
       </c>
@@ -1758,7 +1794,10 @@
       <c r="X6" s="14">
         <v>0.63</v>
       </c>
-      <c r="Y6" s="14"/>
+      <c r="Y6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="Z6" s="11">
         <v>0.05</v>
       </c>
@@ -1814,7 +1853,7 @@
         <v>42</v>
       </c>
       <c r="K7" s="11">
-        <f t="shared" ref="K7:K17" si="0">30*6</f>
+        <f t="shared" ref="K7:K17" si="2">30*6</f>
         <v>180</v>
       </c>
       <c r="M7" s="11" t="s">
@@ -1835,6 +1874,10 @@
       <c r="R7" s="14">
         <v>17</v>
       </c>
+      <c r="S7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4292856398964489</v>
+      </c>
       <c r="T7" s="11">
         <v>1.4</v>
       </c>
@@ -1847,7 +1890,10 @@
       <c r="X7" s="14">
         <v>18.2</v>
       </c>
-      <c r="Y7" s="14"/>
+      <c r="Y7" s="2">
+        <f t="shared" si="1"/>
+        <v>6.9318107302493486</v>
+      </c>
       <c r="Z7" s="11">
         <v>3.1</v>
       </c>
@@ -1903,7 +1949,7 @@
         <v>42</v>
       </c>
       <c r="K8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M8" s="11" t="s">
@@ -1924,6 +1970,10 @@
       <c r="R8" s="14">
         <v>0.55000000000000004</v>
       </c>
+      <c r="S8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22627416997969524</v>
+      </c>
       <c r="T8" s="11">
         <v>0.08</v>
       </c>
@@ -1936,7 +1986,10 @@
       <c r="X8" s="14">
         <v>0.48</v>
       </c>
-      <c r="Y8" s="14"/>
+      <c r="Y8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14142135623730953</v>
+      </c>
       <c r="Z8" s="11">
         <v>0.05</v>
       </c>
@@ -1998,7 +2051,7 @@
         <v>42</v>
       </c>
       <c r="K9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M9" s="11" t="s">
@@ -2019,6 +2072,10 @@
       <c r="R9" s="14">
         <v>28.1</v>
       </c>
+      <c r="S9" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8585712797928977</v>
+      </c>
       <c r="T9" s="11">
         <v>2.8</v>
       </c>
@@ -2031,7 +2088,10 @@
       <c r="X9" s="11">
         <v>25.7</v>
       </c>
-      <c r="Y9" s="14"/>
+      <c r="Y9" s="2">
+        <f t="shared" si="1"/>
+        <v>8.8181630740194414</v>
+      </c>
       <c r="Z9" s="15">
         <v>3.6</v>
       </c>
@@ -2093,7 +2153,7 @@
         <v>42</v>
       </c>
       <c r="K10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M10" s="11" t="s">
@@ -2114,6 +2174,10 @@
       <c r="R10" s="14">
         <v>0.54</v>
       </c>
+      <c r="S10" s="2">
+        <f t="shared" si="0"/>
+        <v>5.656854249492381E-2</v>
+      </c>
       <c r="T10" s="11">
         <v>0.02</v>
       </c>
@@ -2126,7 +2190,10 @@
       <c r="X10" s="14">
         <v>0.65</v>
       </c>
-      <c r="Y10" s="14"/>
+      <c r="Y10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
       <c r="Z10" s="11">
         <v>0.04</v>
       </c>
@@ -2182,7 +2249,7 @@
         <v>42</v>
       </c>
       <c r="K11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M11" s="11" t="s">
@@ -2203,6 +2270,10 @@
       <c r="R11" s="14">
         <v>17</v>
       </c>
+      <c r="S11" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4292856398964489</v>
+      </c>
       <c r="T11" s="11">
         <v>1.4</v>
       </c>
@@ -2215,7 +2286,10 @@
       <c r="X11" s="14">
         <v>16.7</v>
       </c>
-      <c r="Y11" s="14"/>
+      <c r="Y11" s="2">
+        <f t="shared" si="1"/>
+        <v>4.4090815370097207</v>
+      </c>
       <c r="Z11" s="11">
         <v>1.8</v>
       </c>
@@ -2271,7 +2345,7 @@
         <v>42</v>
       </c>
       <c r="K12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M12" s="11" t="s">
@@ -2292,6 +2366,10 @@
       <c r="R12" s="14">
         <v>0.55000000000000004</v>
       </c>
+      <c r="S12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22627416997969524</v>
+      </c>
       <c r="T12" s="11">
         <v>0.08</v>
       </c>
@@ -2304,7 +2382,10 @@
       <c r="X12" s="14">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Y12" s="14"/>
+      <c r="Y12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
       <c r="Z12" s="11">
         <v>0.04</v>
       </c>
@@ -2362,7 +2443,7 @@
         <v>42</v>
       </c>
       <c r="K13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M13" s="11" t="s">
@@ -2383,6 +2464,10 @@
       <c r="R13" s="14">
         <v>28.1</v>
       </c>
+      <c r="S13" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8585712797928977</v>
+      </c>
       <c r="T13" s="11">
         <v>2.8</v>
       </c>
@@ -2395,7 +2480,10 @@
       <c r="X13" s="14">
         <v>25.9</v>
       </c>
-      <c r="Y13" s="14"/>
+      <c r="Y13" s="2">
+        <f t="shared" si="1"/>
+        <v>12.982295636750843</v>
+      </c>
       <c r="Z13" s="11">
         <v>5.3</v>
       </c>
@@ -2453,7 +2541,7 @@
         <v>42</v>
       </c>
       <c r="K14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M14" s="11" t="s">
@@ -2474,6 +2562,10 @@
       <c r="R14" s="14">
         <v>0.54</v>
       </c>
+      <c r="S14" s="2">
+        <f t="shared" si="0"/>
+        <v>5.656854249492381E-2</v>
+      </c>
       <c r="T14" s="11">
         <v>0.02</v>
       </c>
@@ -2486,7 +2578,10 @@
       <c r="X14" s="14">
         <v>0.47</v>
       </c>
-      <c r="Y14" s="14"/>
+      <c r="Y14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
       <c r="Z14" s="11">
         <v>0.03</v>
       </c>
@@ -2544,7 +2639,7 @@
         <v>42</v>
       </c>
       <c r="K15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M15" s="11" t="s">
@@ -2565,6 +2660,10 @@
       <c r="R15" s="14">
         <v>17</v>
       </c>
+      <c r="S15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4292856398964489</v>
+      </c>
       <c r="T15" s="11">
         <v>1.4</v>
       </c>
@@ -2577,7 +2676,10 @@
       <c r="X15" s="14">
         <v>17.600000000000001</v>
       </c>
-      <c r="Y15" s="14"/>
+      <c r="Y15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9068883707497268</v>
+      </c>
       <c r="Z15" s="11">
         <v>1.3</v>
       </c>
@@ -2635,7 +2737,7 @@
         <v>42</v>
       </c>
       <c r="K16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M16" s="11" t="s">
@@ -2656,6 +2758,10 @@
       <c r="R16" s="14">
         <v>0.55000000000000004</v>
       </c>
+      <c r="S16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22627416997969524</v>
+      </c>
       <c r="T16" s="11">
         <v>0.08</v>
       </c>
@@ -2668,7 +2774,10 @@
       <c r="X16" s="14">
         <v>0.59</v>
       </c>
-      <c r="Y16" s="14"/>
+      <c r="Y16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
       <c r="Z16" s="11">
         <v>0.08</v>
       </c>
@@ -2726,7 +2835,7 @@
         <v>42</v>
       </c>
       <c r="K17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M17" s="11" t="s">
@@ -2747,6 +2856,10 @@
       <c r="R17" s="14">
         <v>28.1</v>
       </c>
+      <c r="S17" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8585712797928977</v>
+      </c>
       <c r="T17" s="11">
         <v>2.8</v>
       </c>
@@ -2759,7 +2872,10 @@
       <c r="X17" s="14">
         <v>18.8</v>
       </c>
-      <c r="Y17" s="14"/>
+      <c r="Y17" s="2">
+        <f t="shared" si="1"/>
+        <v>5.6338264084013083</v>
+      </c>
       <c r="Z17" s="11">
         <v>2.2999999999999998</v>
       </c>
@@ -2837,6 +2953,10 @@
       <c r="R18" s="17">
         <v>86.8</v>
       </c>
+      <c r="S18" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5839393538745687</v>
+      </c>
       <c r="T18" s="16">
         <v>2.0499999999999998</v>
       </c>
@@ -2849,7 +2969,10 @@
       <c r="X18" s="17">
         <v>88</v>
       </c>
-      <c r="Y18" s="17"/>
+      <c r="Y18" s="2">
+        <f t="shared" si="1"/>
+        <v>3.711872842649651</v>
+      </c>
       <c r="Z18" s="16">
         <v>1.66</v>
       </c>
@@ -2921,6 +3044,10 @@
       <c r="R19" s="17">
         <v>2</v>
       </c>
+      <c r="S19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42485291572496009</v>
+      </c>
       <c r="T19" s="16">
         <v>0.19</v>
       </c>
@@ -2933,7 +3060,10 @@
       <c r="X19" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Y19" s="17"/>
+      <c r="Y19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22360679774997899</v>
+      </c>
       <c r="Z19" s="16">
         <v>0.1</v>
       </c>
@@ -4163,6 +4293,10 @@
       <c r="R34" s="38">
         <v>1.27</v>
       </c>
+      <c r="S34" s="38">
+        <f>T34*SQRT(V34)</f>
+        <v>1.264911064067352</v>
+      </c>
       <c r="T34" s="38">
         <v>0.4</v>
       </c>
@@ -4174,6 +4308,10 @@
       </c>
       <c r="X34" s="41">
         <v>4.4000000000000004</v>
+      </c>
+      <c r="Y34" s="38">
+        <f>Z34*SQRT(AB34)</f>
+        <v>0.63245553203367599</v>
       </c>
       <c r="Z34" s="38">
         <v>0.2</v>
